--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Wnt2b-Fzd7.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Wnt2b-Fzd7.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.675229333333333</v>
+        <v>1.993530333333333</v>
       </c>
       <c r="H2">
-        <v>5.025688</v>
+        <v>5.980591</v>
       </c>
       <c r="I2">
-        <v>0.2721044738138681</v>
+        <v>0.2657535748877558</v>
       </c>
       <c r="J2">
-        <v>0.2721044738138681</v>
+        <v>0.2657535748877558</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.301118333333333</v>
+        <v>1.123319</v>
       </c>
       <c r="N2">
-        <v>3.903354999999999</v>
+        <v>3.369957</v>
       </c>
       <c r="O2">
-        <v>0.05808586029604725</v>
+        <v>0.05053686506648315</v>
       </c>
       <c r="P2">
-        <v>0.05808586029604724</v>
+        <v>0.05053686506648315</v>
       </c>
       <c r="Q2">
-        <v>2.179671598137777</v>
+        <v>2.239370500509667</v>
       </c>
       <c r="R2">
-        <v>19.61704438324</v>
+        <v>20.154334504587</v>
       </c>
       <c r="S2">
-        <v>0.01580542245188179</v>
+        <v>0.01343035255503804</v>
       </c>
       <c r="T2">
-        <v>0.01580542245188178</v>
+        <v>0.01343035255503804</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.675229333333333</v>
+        <v>1.993530333333333</v>
       </c>
       <c r="H3">
-        <v>5.025688</v>
+        <v>5.980591</v>
       </c>
       <c r="I3">
-        <v>0.2721044738138681</v>
+        <v>0.2657535748877558</v>
       </c>
       <c r="J3">
-        <v>0.2721044738138681</v>
+        <v>0.2657535748877558</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>33.622946</v>
       </c>
       <c r="O3">
-        <v>0.5003433569576788</v>
+        <v>0.5042195746532222</v>
       </c>
       <c r="P3">
-        <v>0.5003433569576788</v>
+        <v>0.5042195746532223</v>
       </c>
       <c r="Q3">
-        <v>18.77538180409422</v>
+        <v>22.34278758234289</v>
       </c>
       <c r="R3">
-        <v>168.978436236848</v>
+        <v>201.085088241086</v>
       </c>
       <c r="S3">
-        <v>0.1361456658712336</v>
+        <v>0.1339981544924775</v>
       </c>
       <c r="T3">
-        <v>0.1361456658712336</v>
+        <v>0.1339981544924775</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.675229333333333</v>
+        <v>1.993530333333333</v>
       </c>
       <c r="H4">
-        <v>5.025688</v>
+        <v>5.980591</v>
       </c>
       <c r="I4">
-        <v>0.2721044738138681</v>
+        <v>0.2657535748877558</v>
       </c>
       <c r="J4">
-        <v>0.2721044738138681</v>
+        <v>0.2657535748877558</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.043928000000001</v>
+        <v>4.958620666666667</v>
       </c>
       <c r="N4">
-        <v>18.131784</v>
+        <v>14.875862</v>
       </c>
       <c r="O4">
-        <v>0.2698192381533591</v>
+        <v>0.2230827962023326</v>
       </c>
       <c r="P4">
-        <v>0.2698192381533591</v>
+        <v>0.2230827962023326</v>
       </c>
       <c r="Q4">
-        <v>10.12496547415467</v>
+        <v>9.885160710493556</v>
       </c>
       <c r="R4">
-        <v>91.12468926739201</v>
+        <v>88.966446394442</v>
       </c>
       <c r="S4">
-        <v>0.07341902182257855</v>
+        <v>0.05928505058672656</v>
       </c>
       <c r="T4">
-        <v>0.07341902182257853</v>
+        <v>0.05928505058672655</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.675229333333333</v>
+        <v>1.993530333333333</v>
       </c>
       <c r="H5">
-        <v>5.025688</v>
+        <v>5.980591</v>
       </c>
       <c r="I5">
-        <v>0.2721044738138681</v>
+        <v>0.2657535748877558</v>
       </c>
       <c r="J5">
-        <v>0.2721044738138681</v>
+        <v>0.2657535748877558</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.84722</v>
+        <v>4.938126</v>
       </c>
       <c r="N5">
-        <v>11.54166</v>
+        <v>14.814378</v>
       </c>
       <c r="O5">
-        <v>0.1717515445929148</v>
+        <v>0.222160764077962</v>
       </c>
       <c r="P5">
-        <v>0.1717515445929147</v>
+        <v>0.222160764077962</v>
       </c>
       <c r="Q5">
-        <v>6.444975795786666</v>
+        <v>9.844303970822001</v>
       </c>
       <c r="R5">
-        <v>58.00478216208</v>
+        <v>88.598735737398</v>
       </c>
       <c r="S5">
-        <v>0.04673436366817417</v>
+        <v>0.05904001725351371</v>
       </c>
       <c r="T5">
-        <v>0.04673436366817416</v>
+        <v>0.05904001725351371</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>7.300612</v>
       </c>
       <c r="I6">
-        <v>0.3952750721451891</v>
+        <v>0.324410035374171</v>
       </c>
       <c r="J6">
-        <v>0.3952750721451891</v>
+        <v>0.324410035374171</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.301118333333333</v>
+        <v>1.123319</v>
       </c>
       <c r="N6">
-        <v>3.903354999999999</v>
+        <v>3.369957</v>
       </c>
       <c r="O6">
-        <v>0.05808586029604725</v>
+        <v>0.05053686506648315</v>
       </c>
       <c r="P6">
-        <v>0.05808586029604724</v>
+        <v>0.05053686506648315</v>
       </c>
       <c r="Q6">
-        <v>3.166320039251111</v>
+        <v>2.733638723742667</v>
       </c>
       <c r="R6">
-        <v>28.49688035326</v>
+        <v>24.602748513684</v>
       </c>
       <c r="S6">
-        <v>0.02295989261913545</v>
+        <v>0.0163946661839175</v>
       </c>
       <c r="T6">
-        <v>0.02295989261913545</v>
+        <v>0.0163946661839175</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>7.300612</v>
       </c>
       <c r="I7">
-        <v>0.3952750721451891</v>
+        <v>0.324410035374171</v>
       </c>
       <c r="J7">
-        <v>0.3952750721451891</v>
+        <v>0.324410035374171</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>33.622946</v>
       </c>
       <c r="O7">
-        <v>0.5003433569576788</v>
+        <v>0.5042195746532222</v>
       </c>
       <c r="P7">
-        <v>0.5003433569576788</v>
+        <v>0.5042195746532223</v>
       </c>
       <c r="Q7">
         <v>27.27423144921688</v>
@@ -883,10 +883,10 @@
         <v>245.468083042952</v>
       </c>
       <c r="S7">
-        <v>0.1977732565188126</v>
+        <v>0.1635738900496013</v>
       </c>
       <c r="T7">
-        <v>0.1977732565188126</v>
+        <v>0.1635738900496013</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>7.300612</v>
       </c>
       <c r="I8">
-        <v>0.3952750721451891</v>
+        <v>0.324410035374171</v>
       </c>
       <c r="J8">
-        <v>0.3952750721451891</v>
+        <v>0.324410035374171</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.043928000000001</v>
+        <v>4.958620666666667</v>
       </c>
       <c r="N8">
-        <v>18.131784</v>
+        <v>14.875862</v>
       </c>
       <c r="O8">
-        <v>0.2698192381533591</v>
+        <v>0.2230827962023326</v>
       </c>
       <c r="P8">
-        <v>0.2698192381533591</v>
+        <v>0.2230827962023326</v>
       </c>
       <c r="Q8">
-        <v>14.70812442797867</v>
+        <v>12.06698851417156</v>
       </c>
       <c r="R8">
-        <v>132.373119851808</v>
+        <v>108.602896627544</v>
       </c>
       <c r="S8">
-        <v>0.106652818827229</v>
+        <v>0.0723702978073677</v>
       </c>
       <c r="T8">
-        <v>0.106652818827229</v>
+        <v>0.07237029780736769</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>7.300612</v>
       </c>
       <c r="I9">
-        <v>0.3952750721451891</v>
+        <v>0.324410035374171</v>
       </c>
       <c r="J9">
-        <v>0.3952750721451891</v>
+        <v>0.324410035374171</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.84722</v>
+        <v>4.938126</v>
       </c>
       <c r="N9">
-        <v>11.54166</v>
+        <v>14.814378</v>
       </c>
       <c r="O9">
-        <v>0.1717515445929148</v>
+        <v>0.222160764077962</v>
       </c>
       <c r="P9">
-        <v>0.1717515445929147</v>
+        <v>0.222160764077962</v>
       </c>
       <c r="Q9">
-        <v>9.362353499546666</v>
+        <v>12.017113977704</v>
       </c>
       <c r="R9">
-        <v>84.26118149592</v>
+        <v>108.154025799336</v>
       </c>
       <c r="S9">
-        <v>0.06788910418001205</v>
+        <v>0.0720711813332845</v>
       </c>
       <c r="T9">
-        <v>0.06788910418001204</v>
+        <v>0.0720711813332845</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.120972666666667</v>
+        <v>2.135898</v>
       </c>
       <c r="H10">
-        <v>3.362918</v>
+        <v>6.407693999999999</v>
       </c>
       <c r="I10">
-        <v>0.1820775648765275</v>
+        <v>0.2847323261675683</v>
       </c>
       <c r="J10">
-        <v>0.1820775648765275</v>
+        <v>0.2847323261675683</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.301118333333333</v>
+        <v>1.123319</v>
       </c>
       <c r="N10">
-        <v>3.903354999999999</v>
+        <v>3.369957</v>
       </c>
       <c r="O10">
-        <v>0.05808586029604725</v>
+        <v>0.05053686506648315</v>
       </c>
       <c r="P10">
-        <v>0.05808586029604724</v>
+        <v>0.05053686506648315</v>
       </c>
       <c r="Q10">
-        <v>1.458518087765555</v>
+        <v>2.399294805462</v>
       </c>
       <c r="R10">
-        <v>13.12666278989</v>
+        <v>21.593653249158</v>
       </c>
       <c r="S10">
-        <v>0.01057613199646245</v>
+        <v>0.01438947914759627</v>
       </c>
       <c r="T10">
-        <v>0.01057613199646245</v>
+        <v>0.01438947914759627</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.120972666666667</v>
+        <v>2.135898</v>
       </c>
       <c r="H11">
-        <v>3.362918</v>
+        <v>6.407693999999999</v>
       </c>
       <c r="I11">
-        <v>0.1820775648765275</v>
+        <v>0.2847323261675683</v>
       </c>
       <c r="J11">
-        <v>0.1820775648765275</v>
+        <v>0.2847323261675683</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>33.622946</v>
       </c>
       <c r="O11">
-        <v>0.5003433569576788</v>
+        <v>0.5042195746532222</v>
       </c>
       <c r="P11">
-        <v>0.5003433569576788</v>
+        <v>0.5042195746532223</v>
       </c>
       <c r="Q11">
-        <v>12.56346781293644</v>
+        <v>23.93839437183599</v>
       </c>
       <c r="R11">
-        <v>113.071210316428</v>
+        <v>215.445549346524</v>
       </c>
       <c r="S11">
-        <v>0.09110130003700131</v>
+        <v>0.1435676123902338</v>
       </c>
       <c r="T11">
-        <v>0.09110130003700131</v>
+        <v>0.1435676123902338</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.120972666666667</v>
+        <v>2.135898</v>
       </c>
       <c r="H12">
-        <v>3.362918</v>
+        <v>6.407693999999999</v>
       </c>
       <c r="I12">
-        <v>0.1820775648765275</v>
+        <v>0.2847323261675683</v>
       </c>
       <c r="J12">
-        <v>0.1820775648765275</v>
+        <v>0.2847323261675683</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.043928000000001</v>
+        <v>4.958620666666667</v>
       </c>
       <c r="N12">
-        <v>18.131784</v>
+        <v>14.875862</v>
       </c>
       <c r="O12">
-        <v>0.2698192381533591</v>
+        <v>0.2230827962023326</v>
       </c>
       <c r="P12">
-        <v>0.2698192381533591</v>
+        <v>0.2230827962023326</v>
       </c>
       <c r="Q12">
-        <v>6.775078087301334</v>
+        <v>10.591107964692</v>
       </c>
       <c r="R12">
-        <v>60.975702785712</v>
+        <v>95.319971682228</v>
       </c>
       <c r="S12">
-        <v>0.04912802983980347</v>
+        <v>0.06351888349065572</v>
       </c>
       <c r="T12">
-        <v>0.04912802983980345</v>
+        <v>0.06351888349065572</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.120972666666667</v>
+        <v>2.135898</v>
       </c>
       <c r="H13">
-        <v>3.362918</v>
+        <v>6.407693999999999</v>
       </c>
       <c r="I13">
-        <v>0.1820775648765275</v>
+        <v>0.2847323261675683</v>
       </c>
       <c r="J13">
-        <v>0.1820775648765275</v>
+        <v>0.2847323261675683</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.84722</v>
+        <v>4.938126</v>
       </c>
       <c r="N13">
-        <v>11.54166</v>
+        <v>14.814378</v>
       </c>
       <c r="O13">
-        <v>0.1717515445929148</v>
+        <v>0.222160764077962</v>
       </c>
       <c r="P13">
-        <v>0.1717515445929147</v>
+        <v>0.222160764077962</v>
       </c>
       <c r="Q13">
-        <v>4.312628462653334</v>
+        <v>10.547333447148</v>
       </c>
       <c r="R13">
-        <v>38.81365616388</v>
+        <v>94.926001024332</v>
       </c>
       <c r="S13">
-        <v>0.03127210300326024</v>
+        <v>0.06325635113908244</v>
       </c>
       <c r="T13">
-        <v>0.03127210300326023</v>
+        <v>0.06325635113908246</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.9268273333333333</v>
+        <v>0.9384586666666667</v>
       </c>
       <c r="H14">
-        <v>2.780482</v>
+        <v>2.815376</v>
       </c>
       <c r="I14">
-        <v>0.1505428891644152</v>
+        <v>0.125104063570505</v>
       </c>
       <c r="J14">
-        <v>0.1505428891644152</v>
+        <v>0.125104063570505</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.301118333333333</v>
+        <v>1.123319</v>
       </c>
       <c r="N14">
-        <v>3.903354999999999</v>
+        <v>3.369957</v>
       </c>
       <c r="O14">
-        <v>0.05808586029604725</v>
+        <v>0.05053686506648315</v>
       </c>
       <c r="P14">
-        <v>0.05808586029604724</v>
+        <v>0.05053686506648315</v>
       </c>
       <c r="Q14">
-        <v>1.205912035234444</v>
+        <v>1.054188450981334</v>
       </c>
       <c r="R14">
-        <v>10.85320831711</v>
+        <v>9.487696058832002</v>
       </c>
       <c r="S14">
-        <v>0.008744413228567548</v>
+        <v>0.006322367179931343</v>
       </c>
       <c r="T14">
-        <v>0.008744413228567548</v>
+        <v>0.006322367179931343</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.9268273333333333</v>
+        <v>0.9384586666666667</v>
       </c>
       <c r="H15">
-        <v>2.780482</v>
+        <v>2.815376</v>
       </c>
       <c r="I15">
-        <v>0.1505428891644152</v>
+        <v>0.125104063570505</v>
       </c>
       <c r="J15">
-        <v>0.1505428891644152</v>
+        <v>0.125104063570505</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>33.622946</v>
       </c>
       <c r="O15">
-        <v>0.5003433569576788</v>
+        <v>0.5042195746532222</v>
       </c>
       <c r="P15">
-        <v>0.5003433569576788</v>
+        <v>0.5042195746532223</v>
       </c>
       <c r="Q15">
-        <v>10.38755512666356</v>
+        <v>10.51791502418844</v>
       </c>
       <c r="R15">
-        <v>93.487996139972</v>
+        <v>94.661235217696</v>
       </c>
       <c r="S15">
-        <v>0.0753231345306313</v>
+        <v>0.06307991772090972</v>
       </c>
       <c r="T15">
-        <v>0.0753231345306313</v>
+        <v>0.06307991772090973</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.9268273333333333</v>
+        <v>0.9384586666666667</v>
       </c>
       <c r="H16">
-        <v>2.780482</v>
+        <v>2.815376</v>
       </c>
       <c r="I16">
-        <v>0.1505428891644152</v>
+        <v>0.125104063570505</v>
       </c>
       <c r="J16">
-        <v>0.1505428891644152</v>
+        <v>0.125104063570505</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.043928000000001</v>
+        <v>4.958620666666667</v>
       </c>
       <c r="N16">
-        <v>18.131784</v>
+        <v>14.875862</v>
       </c>
       <c r="O16">
-        <v>0.2698192381533591</v>
+        <v>0.2230827962023326</v>
       </c>
       <c r="P16">
-        <v>0.2698192381533591</v>
+        <v>0.2230827962023326</v>
       </c>
       <c r="Q16">
-        <v>5.601677671098668</v>
+        <v>4.653460539345779</v>
       </c>
       <c r="R16">
-        <v>50.41509903988801</v>
+        <v>41.88114485411201</v>
       </c>
       <c r="S16">
-        <v>0.0406193676637481</v>
+        <v>0.02790856431758264</v>
       </c>
       <c r="T16">
-        <v>0.04061936766374809</v>
+        <v>0.02790856431758264</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.9268273333333333</v>
+        <v>0.9384586666666667</v>
       </c>
       <c r="H17">
-        <v>2.780482</v>
+        <v>2.815376</v>
       </c>
       <c r="I17">
-        <v>0.1505428891644152</v>
+        <v>0.125104063570505</v>
       </c>
       <c r="J17">
-        <v>0.1505428891644152</v>
+        <v>0.125104063570505</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.84722</v>
+        <v>4.938126</v>
       </c>
       <c r="N17">
-        <v>11.54166</v>
+        <v>14.814378</v>
       </c>
       <c r="O17">
-        <v>0.1717515445929148</v>
+        <v>0.222160764077962</v>
       </c>
       <c r="P17">
-        <v>0.1717515445929147</v>
+        <v>0.222160764077962</v>
       </c>
       <c r="Q17">
-        <v>3.565708653346667</v>
+        <v>4.634227141792</v>
       </c>
       <c r="R17">
-        <v>32.09137788012</v>
+        <v>41.70804427612801</v>
       </c>
       <c r="S17">
-        <v>0.02585597374146829</v>
+        <v>0.02779321435208133</v>
       </c>
       <c r="T17">
-        <v>0.02585597374146828</v>
+        <v>0.02779321435208133</v>
       </c>
     </row>
   </sheetData>
